--- a/biology/Biochimie/Acide_isocitrique/Acide_isocitrique.xlsx
+++ b/biology/Biochimie/Acide_isocitrique/Acide_isocitrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’acide isocitrique est un composé chimique de formule HOOC–CH2–CH(COOH)–CHOH–COOH. Il s'agit d'un acide faible, présent dans le milieu intracellulaire sous forme d'anion isocitrate. C'est un acide tricarboxylique, isomère de l'acide citrique, dont il dérive dans les cellules vivantes par action d'une enzyme, l'aconitase (EC 4.2.1.3), via l'acide cis-aconitique :
